--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,26 +612,26 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Camera error AI Spot-Check</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,21 +1212,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,21 +1287,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,21 +1437,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,21 +1512,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1937,26 +1937,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,40 +1996,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>19</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,26 +612,26 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,21 +1212,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,21 +1287,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,21 +1362,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,21 +1437,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,21 +1512,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1937,26 +1937,26 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>GPS signal weak Hovering unstable Fly with caution</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,15 +1996,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>Aircraft unable to fly stably</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3-7</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
